--- a/biology/Histoire de la zoologie et de la botanique/Chronologie_de_l'ornithologie/Chronologie_de_l'ornithologie.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Chronologie_de_l'ornithologie/Chronologie_de_l'ornithologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27ornithologie</t>
+          <t>Chronologie_de_l'ornithologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette chronologie de l'ornithologie présente, à travers les siècles, les avancées historiques en ornithologie (branche de l'histoire naturelle consacrée à l'étude des oiseaux).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27ornithologie</t>
+          <t>Chronologie_de_l'ornithologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Antiquité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1500 av. J.-C. – vers 800 av. J.-C. : les chants védiques mentionnent le comportement de cleptoparasitisme chez le Coucou koël (Eudynamys scolopaceus).
-Des oies sont mentionnées dans un des plus anciens livres connus, le I-Ching (Livre des Changements), également considéré comme un des plus incompréhensibles. L'âge de cet ouvrage est très incertain mais il est considéré comme un des quatre grands classiques par Confucius (551-479 avant notre ère)[1].
+Des oies sont mentionnées dans un des plus anciens livres connus, le I-Ching (Livre des Changements), également considéré comme un des plus incompréhensibles. L'âge de cet ouvrage est très incertain mais il est considéré comme un des quatre grands classiques par Confucius (551-479 avant notre ère).
 IVe siècle av. J.-C. : Aristote mentionne plus de 170 espèces d'oiseaux dans ses travaux sur les animaux. Il reconnaît huit groupes principaux.
 Ier siècle : le dixième livre de l'Histoire naturelle de Pline l'Ancien est consacré aux oiseaux. Il distingue trois groupes sur les différences de pattes.
 IIe siècle : Élien mentionne de nombreux oiseaux dans son travail sur les animaux, ceux-ci sont rangés par ordre alphabétique.</t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27ornithologie</t>
+          <t>Chronologie_de_l'ornithologie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Moyen Âge</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>XIIe siècle : l'empereur Frédéric II (1194-1250) écrit De arte venandi cum avibus (De l'art de chasser au moyen des oiseaux) qui est bien plus qu'un simple manuel de fauconnerie tant les observations ornithologiques sont précises.
 1220 : Michael Scot (1175-v. 1232) réalise la première traduction des ouvrages zoologiques d'Aristote et d'Avicenne.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27ornithologie</t>
+          <t>Chronologie_de_l'ornithologie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>XVIe siècle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1544 : William Turner publie une analyse des oiseaux mentionnés par Aristote et Pline l'Ancien.
 1555 : parution d’Historia Animalium de Conrad Gessner et d’Histoire de la nature des oyseaux de Pierre Belon. Belon tente de définir un système de classification des oiseaux.
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27ornithologie</t>
+          <t>Chronologie_de_l'ornithologie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +632,9 @@
           <t>XVIIe siècle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1600 : début de la parution des ouvrages d'Ulisse Aldrovandi sur les oiseaux.
 1603 : Caspar Schwenckfeld publie la première faune régionale d'Europe : Therio-tropheum Silesiae.
@@ -635,7 +655,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27ornithologie</t>
+          <t>Chronologie_de_l'ornithologie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -653,7 +673,9 @@
           <t>XVIIIe siècle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">1702 : Johann Ferdinand Adam von Pernau (1660-1731) fait paraître son premier livre consacré à l'observation des oiseaux. Pernau est un véritable précurseur : ses observations lui permettent d'affirmer que le chant des oiseaux doit être appris (dans certains cas) et n'est pas seulement le fait de l'instinct. Il s'intéresse aussi aux mécanismes de la migration. Enfin, il recommande de connaître les oiseaux sans les tuer.
 1731-1743 : Mark Catesby (1683-1749) fait paraître son Natural History of Carolina qui contient des planches colorées des oiseaux de la Floride et des Bahamas. Début de la publication de A Natural History of Birds de Eleazar Albin (1737). Ces deux livres, de grand format, illustrés en couleur, répondent à la demande d'un public cultivé et riche mais ne constituent pas pour autant des ouvrages scientifiques au sens strict du terme.
@@ -685,7 +707,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27ornithologie</t>
+          <t>Chronologie_de_l'ornithologie</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -703,15 +725,17 @@
           <t>XIXe siècle</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">1801 : Alexander Wilson commence l'étude des oiseaux d'Amérique du Nord. Elle aboutira à la publication d'American Ornithology (1808-1814), plus tard mise à jour par Charles-Lucien Bonaparte.
 1802 : publication de l’Ornithological Dictionary de George Montagu.
 1811 : publication de la Zoographia Russo-Asiatica de Peter Simon Pallas où il présente les oiseaux qu'il a rencontrés durant son exploration de la Sibérie.
 1813 : Blasius Merrem fait paraître ses travaux de classification,  très en avance sur son époque, dans les Abhandlungen de l'Académie des sciences de Berlin. Ils ont un impact considérable sur l'ornithologie.
 1815 : Coenraad Jacob Temminck publie son Manuel d'ornithologie, qui devient un classique en Europe durant de nombreuses années.
-1816 : Blainville propose une classification qui divise les Oiseaux en neuf ordres : 1. Perroquets, 2. Oiseaux de proie, 3. Grimpeurs, 4. Passereaux, 5. Pigeons, 6. Gallinacés, 7. Autruches, 8. Échassiers, 9. Palmipèdes[2].
-1817 : Cuvier propose une classification qui divise les Oiseaux en six ordres : 1. Oiseaux de proie, 2. Passereaux, 3. Grimpeurs, 4. Gallinacés, 5. Échassiers, 6. Palmipèdes[3].
+1816 : Blainville propose une classification qui divise les Oiseaux en neuf ordres : 1. Perroquets, 2. Oiseaux de proie, 3. Grimpeurs, 4. Passereaux, 5. Pigeons, 6. Gallinacés, 7. Autruches, 8. Échassiers, 9. Palmipèdes.
+1817 : Cuvier propose une classification qui divise les Oiseaux en six ordres : 1. Oiseaux de proie, 2. Passereaux, 3. Grimpeurs, 4. Gallinacés, 5. Échassiers, 6. Palmipèdes.
 1825 : début de la parution de l’Ornithologie provençale de Polydore Roux (1792-1833), inachevée par sa mort de la peste à Bombay. Il s'agit d'une des plus anciennes faunes régionales de France.
 1827-1838 : publication de Birds of America de John James Audubon.
 1831-1836 : Charles Darwin voyage en Amérique du Sud et dans l'archipel des Galapagos à bord de l'HMS Beagle. Son étude des pinsons des Galapagos contribue à sa réflexion sur la sélection naturelle.
@@ -746,7 +770,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27ornithologie</t>
+          <t>Chronologie_de_l'ornithologie</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -764,7 +788,9 @@
           <t>XXe siècle</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">1901 : Johannes Thienemann fonde le « Vogelwarte Rossitten » (nommé aujourd'hui Rybachy), le premier observatoire des oiseaux.
 1901 : fondation de la Royal Australasian Ornithologists.
@@ -817,7 +843,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27ornithologie</t>
+          <t>Chronologie_de_l'ornithologie</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -835,11 +861,13 @@
           <t>XXIe siècle</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>2004 : des chercheurs (P.D.N. Hebert et al.) proposent un programme d'identification des espèces d'oiseaux grâce aux séquences ADN en utilisant la méthode du code-barres ADN.
 2005 : on rapporte l'écoute du chant du pic à bec ivoire, Campephilus principalis (Linnaeus, 1758), que l'on supposait disparu.
-2020 : cinq nouvelles espèces (et cinq sous-espèces) d’oiseaux chanteurs sont annoncées découvertes en Indonésie dans la Wallacea sur trois îles à l'est de Sulawesi[4],[5],[6],[7].</t>
+2020 : cinq nouvelles espèces (et cinq sous-espèces) d’oiseaux chanteurs sont annoncées découvertes en Indonésie dans la Wallacea sur trois îles à l'est de Sulawesi.</t>
         </is>
       </c>
     </row>
